--- a/data/datalowonganpekerjaan.xlsx
+++ b/data/datalowonganpekerjaan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F5D61-0573-48E1-AA06-B986D1FACD3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3E518-FF05-4DD6-B82C-0F3D572C2D16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>Asisten Teknisi Pendingin</t>
   </si>
   <si>
-    <t xml:space="preserve">Membantu instalasi/perbaikan AC </t>
-  </si>
-  <si>
     <t>Alat kerja AC, keselamatan</t>
   </si>
   <si>
@@ -1368,6 +1365,9 @@
   </si>
   <si>
     <t>Perkiraan Lowongan</t>
+  </si>
+  <si>
+    <t>Membantu teknisi AC dalam pemasangan dan perbaikan</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,10 +2280,10 @@
         <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="31">
         <v>18</v>
@@ -2313,19 +2313,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5">
         <v>3114</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="G18" s="30">
         <v>10</v>
@@ -2336,19 +2336,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="30">
         <v>12</v>
@@ -2359,19 +2359,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5">
         <v>4110</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="30">
         <v>10</v>
@@ -2382,19 +2382,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5">
         <v>7412</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="G21" s="30">
         <v>15</v>
@@ -2405,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5">
         <v>3322</v>
@@ -2414,10 +2414,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="G22" s="30">
         <v>25</v>
@@ -2428,19 +2428,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5">
         <v>8131</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="G23" s="30">
         <v>35</v>
@@ -2451,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>3115</v>
@@ -2460,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="30">
         <v>10</v>
@@ -2474,19 +2474,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5">
         <v>7223</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="G25" s="30">
         <v>12</v>
@@ -2497,19 +2497,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="5">
         <v>7422</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="G26" s="30">
         <v>14</v>
@@ -2520,19 +2520,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="5">
         <v>2413</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="G27" s="30">
         <v>6</v>
@@ -2543,19 +2543,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="G28" s="30">
         <v>8</v>
@@ -2566,19 +2566,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5">
         <v>7223</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="G29" s="30">
         <v>10</v>
@@ -2589,19 +2589,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5">
         <v>2132</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="G30" s="30">
         <v>7</v>
@@ -2612,19 +2612,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5">
         <v>8131</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="G31" s="30">
         <v>30</v>
@@ -2635,19 +2635,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="5">
         <v>3132</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="G32" s="30">
         <v>9</v>
@@ -2658,19 +2658,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="32">
         <v>18</v>
@@ -2700,19 +2700,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5">
         <v>3322</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="G34" s="30">
         <v>12</v>
@@ -2723,19 +2723,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="5">
         <v>2149</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="G35" s="30">
         <v>10</v>
@@ -2746,19 +2746,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="12">
         <v>2512</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="G36" s="32">
         <v>15</v>
@@ -2788,19 +2788,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="5">
         <v>7412</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="G37" s="30">
         <v>12</v>
@@ -2811,19 +2811,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="12">
         <v>7212</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="G38" s="32">
         <v>18</v>
@@ -2853,19 +2853,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="5">
         <v>1420</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="G39" s="30">
         <v>5</v>
@@ -2876,19 +2876,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="G40" s="30">
         <v>10</v>
@@ -2899,19 +2899,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="5">
         <v>2431</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="G41" s="30">
         <v>8</v>
@@ -2922,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="5">
         <v>3114</v>
@@ -2931,10 +2931,10 @@
         <v>6</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="G42" s="30">
         <v>14</v>
@@ -2945,19 +2945,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="12">
         <v>7422</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="G43" s="32">
         <v>16</v>
@@ -2987,19 +2987,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="5">
         <v>3139</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="G44" s="30">
         <v>10</v>
@@ -3010,19 +3010,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="12">
         <v>5132</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="G45" s="32">
         <v>25</v>
@@ -3052,19 +3052,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="5">
         <v>2424</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>173</v>
       </c>
       <c r="G46" s="30">
         <v>8</v>
@@ -3075,7 +3075,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>33</v>
@@ -3084,10 +3084,10 @@
         <v>66</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="32">
         <v>20</v>
@@ -3117,7 +3117,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="5">
         <v>7212</v>
@@ -3126,7 +3126,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>44</v>
@@ -3140,19 +3140,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C49" s="5">
         <v>2431</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="G49" s="30">
         <v>6</v>
@@ -3163,19 +3163,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="5">
         <v>3119</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="G50" s="30">
         <v>12</v>
@@ -3186,19 +3186,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C51" s="5">
         <v>8321</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="G51" s="30">
         <v>30</v>
@@ -3209,19 +3209,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="5">
         <v>2151</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="G52" s="30">
         <v>9</v>
@@ -3232,7 +3232,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="5">
         <v>3115</v>
@@ -3241,10 +3241,10 @@
         <v>58</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="G53" s="30">
         <v>24</v>
@@ -3255,19 +3255,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C54" s="5">
         <v>2431</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>199</v>
       </c>
       <c r="G54" s="30">
         <v>10</v>
@@ -3278,7 +3278,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" s="5">
         <v>3118</v>
@@ -3287,10 +3287,10 @@
         <v>38</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>202</v>
       </c>
       <c r="G55" s="30">
         <v>14</v>
@@ -3301,19 +3301,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="12">
         <v>2166</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="F56" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="G56" s="32">
         <v>15</v>
@@ -3343,19 +3343,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57" s="5">
         <v>4110</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="G57" s="30">
         <v>18</v>
@@ -3366,19 +3366,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="G58" s="30">
         <v>20</v>
@@ -3389,19 +3389,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="5">
         <v>7422</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>218</v>
       </c>
       <c r="G59" s="30">
         <v>10</v>
@@ -3412,19 +3412,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="5">
         <v>3512</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>222</v>
       </c>
       <c r="G60" s="30">
         <v>12</v>
@@ -3435,19 +3435,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C61" s="5">
         <v>7422</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="24" t="s">
         <v>225</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="G61" s="30">
         <v>8</v>
@@ -3458,19 +3458,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C62" s="12">
         <v>3119</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>228</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>229</v>
       </c>
       <c r="G62" s="32">
         <v>10</v>
@@ -3500,19 +3500,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C63" s="12">
         <v>7422</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E63" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="G63" s="32">
         <v>12</v>
@@ -3542,19 +3542,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="5">
         <v>2166</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>235</v>
       </c>
       <c r="G64" s="30">
         <v>14</v>
@@ -3565,19 +3565,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="5">
         <v>3322</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="G65" s="30">
         <v>12</v>
@@ -3588,19 +3588,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="5">
         <v>7411</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="G66" s="30">
         <v>18</v>
@@ -3611,19 +3611,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" s="5">
         <v>8131</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="24" t="s">
         <v>243</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="G67" s="30">
         <v>25</v>
@@ -3634,19 +3634,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C68" s="5">
         <v>1324</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="G68" s="30">
         <v>6</v>
@@ -3657,19 +3657,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C69" s="5">
         <v>7411</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="24" t="s">
         <v>250</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>251</v>
       </c>
       <c r="G69" s="30">
         <v>12</v>
@@ -3680,19 +3680,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="5">
         <v>2166</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="G70" s="30">
         <v>9</v>
@@ -3703,19 +3703,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C71" s="5">
         <v>3315</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="24" t="s">
         <v>258</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>259</v>
       </c>
       <c r="G71" s="30">
         <v>7</v>
@@ -3726,19 +3726,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="5">
         <v>2143</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="24" t="s">
         <v>262</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>263</v>
       </c>
       <c r="G72" s="30">
         <v>8</v>
@@ -3749,19 +3749,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" s="5">
         <v>3118</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="24" t="s">
         <v>266</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>267</v>
       </c>
       <c r="G73" s="30">
         <v>10</v>
@@ -3772,19 +3772,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" s="5">
         <v>1323</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>271</v>
       </c>
       <c r="G74" s="30">
         <v>6</v>
@@ -3795,7 +3795,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C75" s="5">
         <v>3322</v>
@@ -3804,10 +3804,10 @@
         <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G75" s="30">
         <v>28</v>
@@ -3818,19 +3818,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" s="5">
         <v>5223</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="G76" s="30">
         <v>30</v>
@@ -3841,19 +3841,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="G77" s="30">
         <v>12</v>
@@ -3864,19 +3864,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C78" s="5">
         <v>1420</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="G78" s="30">
         <v>7</v>
@@ -3887,19 +3887,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C79" s="5">
         <v>3315</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="G79" s="30">
         <v>14</v>
@@ -3910,19 +3910,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" s="5">
         <v>3322</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>293</v>
       </c>
       <c r="G80" s="30">
         <v>10</v>
@@ -3933,19 +3933,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C81" s="5">
         <v>7222</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>297</v>
       </c>
       <c r="G81" s="30">
         <v>8</v>
@@ -3956,19 +3956,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" s="5">
         <v>3139</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="G82" s="30">
         <v>12</v>
@@ -3979,19 +3979,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C83" s="5">
         <v>7223</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>305</v>
       </c>
       <c r="G83" s="30">
         <v>10</v>
@@ -4002,19 +4002,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C84" s="5">
         <v>7222</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>309</v>
       </c>
       <c r="G84" s="30">
         <v>9</v>
@@ -4025,19 +4025,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="D85" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="F85" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G85" s="30">
         <v>15</v>
@@ -4048,14 +4048,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="30">
@@ -4067,14 +4067,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="30">
@@ -4086,14 +4086,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="30">
@@ -4105,14 +4105,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="30">
@@ -4124,14 +4124,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="30">
@@ -4143,14 +4143,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="30">
@@ -4162,14 +4162,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="30">
@@ -4181,14 +4181,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="30">
@@ -4200,14 +4200,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>335</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="30">
@@ -4219,14 +4219,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>338</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="30">
@@ -4238,14 +4238,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="30">
@@ -4257,14 +4257,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="30">
@@ -4276,14 +4276,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="30">
@@ -4295,14 +4295,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>347</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="30">
@@ -4314,14 +4314,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>350</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>351</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="30">
@@ -4333,14 +4333,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E101" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="30">
@@ -4352,14 +4352,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="30">
@@ -4371,14 +4371,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="30">
@@ -4390,14 +4390,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="30">
@@ -4409,14 +4409,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>364</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>365</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="30">
@@ -4428,14 +4428,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>368</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="30">
@@ -4447,14 +4447,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="30">
@@ -4466,14 +4466,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="30">
@@ -4485,14 +4485,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>375</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="30">
@@ -4504,14 +4504,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>378</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="30">
@@ -4523,14 +4523,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="30">
@@ -4542,14 +4542,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="30">
@@ -4561,14 +4561,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="30">
@@ -4580,14 +4580,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="30">
@@ -4599,14 +4599,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>388</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>389</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="30">
@@ -4618,14 +4618,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E116" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="30">
@@ -4637,14 +4637,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="30">
@@ -4656,14 +4656,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="30">
@@ -4675,14 +4675,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E119" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="30">
@@ -4694,14 +4694,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E120" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>402</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="30">
@@ -4713,14 +4713,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="30">
@@ -4732,14 +4732,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E122" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>407</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="30">
@@ -4751,14 +4751,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="F123" s="27"/>
       <c r="G123" s="30">
@@ -4770,14 +4770,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E124" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>413</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="30">
@@ -4789,14 +4789,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="E125" s="21" t="s">
         <v>415</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>416</v>
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="30">
@@ -4808,14 +4808,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E126" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="30">
@@ -4827,14 +4827,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="30">
@@ -4846,14 +4846,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F128" s="27"/>
       <c r="G128" s="30">
@@ -4865,14 +4865,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E129" s="21" t="s">
         <v>425</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>426</v>
       </c>
       <c r="F129" s="27"/>
       <c r="G129" s="30">
@@ -4884,14 +4884,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F130" s="27"/>
       <c r="G130" s="30">
@@ -4903,14 +4903,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F131" s="27"/>
       <c r="G131" s="30">
@@ -4922,14 +4922,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="30">
@@ -4941,14 +4941,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C133" s="35"/>
       <c r="D133" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="38">
@@ -4960,14 +4960,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C134" s="43"/>
       <c r="D134" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E134" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F134" s="45"/>
       <c r="G134" s="30">
